--- a/Cond_HCM.xlsx
+++ b/Cond_HCM.xlsx
@@ -196,262 +196,262 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.556563875040031</v>
+        <v>-0.254484985892602</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1.58869222202706</v>
+        <v>0.201039769314319</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.329741968486909</v>
+        <v>-0.481825773747618</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.40147478054731</v>
+        <v>0.146585287064064</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.12140416185354</v>
+        <v>0.0497621635572628</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1.61006955319961</v>
+        <v>0.206844637471809</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8.40030898024312</v>
+        <v>0.924295260579347</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.2068177849427</v>
+        <v>0.0816417017727219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1.86158523762426</v>
+        <v>0.269882926335966</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.53577287077744</v>
+        <v>0.404110351187005</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.130137023076114</v>
+        <v>-0.885599132106574</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.51655828009806</v>
+        <v>0.180859104550177</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>9.00502907551883</v>
+        <v>0.954485119411743</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.61831544918401</v>
+        <v>0.20906318012357</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.958954766632414</v>
+        <v>-0.0182018777774549</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.948339242248857</v>
+        <v>-0.0230362779765398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2.00597122279736</v>
+        <v>0.302324698440153</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1.72836908815815</v>
+        <v>0.237636490361715</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.184052830998901</v>
+        <v>-0.7350574980883</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.14078602204584</v>
+        <v>0.0572041911670185</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.39882292055168</v>
+        <v>0.531328538331043</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.59768971070176</v>
+        <v>0.203492438297856</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>8.34508701041296</v>
+        <v>0.921430869229192</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.20373185984894</v>
+        <v>0.0805297553958358</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>0.938000793572524</v>
+        <v>-0.0277967941966045</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1.64041533595443</v>
+        <v>0.214953820777146</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.304551719912293</v>
+        <v>-0.516338943539644</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.22263156703128</v>
+        <v>0.0872956046146598</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.63095986632789</v>
+        <v>0.420114223241432</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.70219779249166</v>
+        <v>0.231010022961711</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.18310822770109</v>
+        <v>-0.737292140870878</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.46211842108953</v>
+        <v>0.164982548779811</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>0.225608244133025</v>
+        <v>-0.646645034493379</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1.04124443225378</v>
+        <v>0.0175526921599338</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.193121906277791</v>
+        <v>-0.714168460368932</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.6479455276885</v>
+        <v>0.216942852133376</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.748234368845286</v>
+        <v>-0.125962347117435</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1.29297776685595</v>
+        <v>0.111591057119535</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>2.93097841685196</v>
+        <v>0.467012620391145</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.702201697054162</v>
+        <v>-0.153538125283132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>4.14497054598784</v>
+        <v>0.617521448816233</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1.38380841403088</v>
+        <v>0.141075966935254</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.10444122423314</v>
+        <v>-0.981128046131158</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.24642076943344</v>
+        <v>0.0956646771506843</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1.92866128890046</v>
+        <v>0.285255963632686</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.35038433972022</v>
+        <v>0.130457392838651</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>8.4987972348401</v>
+        <v>0.929357467922236</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.849595833843148</v>
+        <v>-0.0707876259040467</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>4.16754700525347</v>
+        <v>0.619880506882065</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1.3109363607462</v>
+        <v>0.117581609426475</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.135299259965196</v>
+        <v>-0.868704578819307</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.30241245368205</v>
+        <v>0.114748540293541</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.589906946017656</v>
+        <v>-0.229216490083812</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.27093265965529</v>
+        <v>0.104122540078092</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>6.3245648976101</v>
+        <v>0.801030653315564</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.678835640468605</v>
+        <v>-0.168235364273465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>0.132095316884658</v>
+        <v>-0.879112578957793</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2.72201342666633</v>
+        <v>0.434890263083596</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.462403761994665</v>
+        <v>-0.334978641268156</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.25428040162191</v>
+        <v>0.0983946363863524</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.853928815174813</v>
+        <v>-0.0685783312610025</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1.55820338078758</v>
+        <v>0.192624142289802</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.74537160657226</v>
+        <v>0.2418879066546</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.789481842791131</v>
+        <v>-0.102657853833391</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>2.04777591826429</v>
+        <v>0.311282431412341</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1.69359782004645</v>
+        <v>0.228810285999542</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.162145438387033</v>
+        <v>-0.790095264759783</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.05485348223631</v>
+        <v>0.0231921408893925</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4.79847828909463</v>
+        <v>0.681103534161623</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.44779495857175</v>
+        <v>0.160707060019823</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>2.95398542116791</v>
+        <v>0.47040834760357</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.986368851944179</v>
+        <v>-0.00596065056718175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>1.19154400732249</v>
+        <v>0.0761100867868656</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2.22515444530575</v>
+        <v>0.347360160223107</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.132655839372329</v>
+        <v>-0.877273628068662</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.53818034071711</v>
+        <v>0.187007256393134</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>9.12380291727888</v>
+        <v>0.960175895536802</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1.86934830564857</v>
+        <v>0.271690228681085</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.6195389955191</v>
+        <v>0.209391409484123</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.58496047260094</v>
+        <v>0.200018435799603</v>
       </c>
     </row>
   </sheetData>
